--- a/scoring/examples.xlsx
+++ b/scoring/examples.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="19">
   <si>
     <t>id</t>
   </si>
@@ -70,12 +70,6 @@
     <t>It's all about the cut point</t>
   </si>
   <si>
-    <t>x22</t>
-  </si>
-  <si>
-    <t>cp_0.5</t>
-  </si>
-  <si>
     <t>score (ordered)</t>
   </si>
   <si>
@@ -86,9 +80,6 @@
   </si>
   <si>
     <t>predicted label (cutpoint @ 0.5)</t>
-  </si>
-  <si>
-    <t>Accuracy</t>
   </si>
   <si>
     <t>TP</t>
@@ -102,15 +93,18 @@
   <si>
     <t>TN</t>
   </si>
+  <si>
+    <t>Result?</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -164,6 +158,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="3" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -210,23 +211,41 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="25">
+  <dxfs count="24">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="3" tint="-0.499984740745262"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <strike val="0"/>
@@ -244,11 +263,7 @@
     </dxf>
     <dxf>
       <font>
-        <b val="0"/>
-        <i val="0"/>
         <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
@@ -258,6 +273,18 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -272,6 +299,35 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -299,55 +355,7 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="165" formatCode="0.0"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="5" tint="-0.249977111117893"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="165" formatCode="0.0"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -363,7 +371,7 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="165" formatCode="0.0"/>
+      <numFmt numFmtId="164" formatCode="0.0"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -379,33 +387,7 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="165" formatCode="0.0"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="5" tint="-0.249977111117893"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -434,13 +416,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>590550</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>47625</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
@@ -523,13 +505,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>200025</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>180974</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>104775</xdr:colOff>
       <xdr:row>39</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -690,13 +672,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>371475</xdr:colOff>
       <xdr:row>43</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>180975</xdr:colOff>
       <xdr:row>51</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
@@ -758,7 +740,7 @@
         <a:p>
           <a:r>
             <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t>Several examples only mention how to extract the final class. By default many alghoritms stablish the cut point in 0.5, and this probably lead to a not-optimal result. </a:t>
+            <a:t>Several examples only mention how to extract the final class, yet by default many alghoritms stablish the cut point in 0.5, and this probably lead to a not-optimal result. </a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -768,6 +750,147 @@
           <a:r>
             <a:rPr lang="en-US" sz="1100" baseline="0"/>
             <a:t>In fact, Accuracy Metric or Confution Matrix must be always related to a custom cut point.</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1276350</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>1009650</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9210675" y="266700"/>
+          <a:ext cx="3819525" cy="2352675"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Where the cut-point hitted correctly:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>TP: True Positive </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>TN: True Negative</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>And where</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> not...</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>FP: False Positive</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>FN: False Negative</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Positive means to the less representative class: `yes`. </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>And</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> is in this point (score + cutpoint), where most of the accuracy metrics appear: ROC/AUC, Confusion Matrix, Accuracy Kolmogorov-Smirnov (KS), Lift/Gain curve, and others...</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="1100"/>
         </a:p>
@@ -779,44 +902,43 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B2:G17" totalsRowShown="0" headerRowDxfId="23" dataDxfId="24">
-  <autoFilter ref="B2:G17">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B2:F17" totalsRowShown="0" headerRowDxfId="23" dataDxfId="22">
+  <autoFilter ref="B2:F17">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
+    <filterColumn colId="3" hiddenButton="1"/>
     <filterColumn colId="4" hiddenButton="1"/>
-    <filterColumn colId="5" hiddenButton="1"/>
   </autoFilter>
-  <tableColumns count="6">
-    <tableColumn id="1" name="id" dataDxfId="17"/>
-    <tableColumn id="2" name="x1" dataDxfId="16"/>
-    <tableColumn id="3" name="x2" dataDxfId="15"/>
-    <tableColumn id="6" name="x22" dataDxfId="13"/>
-    <tableColumn id="4" name="x3" dataDxfId="7"/>
-    <tableColumn id="5" name="target" dataDxfId="14"/>
+  <tableColumns count="5">
+    <tableColumn id="1" name="id" dataDxfId="21"/>
+    <tableColumn id="2" name="x1" dataDxfId="20"/>
+    <tableColumn id="3" name="x2" dataDxfId="19"/>
+    <tableColumn id="4" name="x3" dataDxfId="18"/>
+    <tableColumn id="5" name="target" dataDxfId="17"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table134" displayName="Table134" ref="B20:D35" totalsRowShown="0" headerRowDxfId="22" dataDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table134" displayName="Table134" ref="B20:D35" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15">
   <autoFilter ref="B20:D35">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" name="id" dataDxfId="20"/>
-    <tableColumn id="5" name="target" dataDxfId="19"/>
-    <tableColumn id="9" name="score" dataDxfId="18"/>
+    <tableColumn id="1" name="id" dataDxfId="14"/>
+    <tableColumn id="5" name="target" dataDxfId="13"/>
+    <tableColumn id="9" name="score" dataDxfId="12"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table1345" displayName="Table1345" ref="B43:D58" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table1345" displayName="Table1345" ref="B43:D58" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
   <autoFilter ref="B43:D58">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -826,27 +948,24 @@
     <sortCondition descending="1" ref="D42"/>
   </sortState>
   <tableColumns count="3">
-    <tableColumn id="1" name="id" dataDxfId="10"/>
-    <tableColumn id="5" name="target" dataDxfId="9"/>
-    <tableColumn id="9" name="score (ordered)" dataDxfId="8"/>
+    <tableColumn id="1" name="id" dataDxfId="9"/>
+    <tableColumn id="5" name="target" dataDxfId="8"/>
+    <tableColumn id="9" name="score (ordered)" dataDxfId="7"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table13456" displayName="Table13456" ref="A1:E16" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
-  <sortState ref="A2:C16">
-    <sortCondition descending="1" ref="C42"/>
-  </sortState>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table13456" displayName="Table13456" ref="B2:F17" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
   <tableColumns count="5">
     <tableColumn id="1" name="id" dataDxfId="4"/>
     <tableColumn id="5" name="target" dataDxfId="3"/>
     <tableColumn id="9" name="score (ordered)" dataDxfId="2"/>
-    <tableColumn id="10" name="predicted label (cutpoint @ 0.5)" dataDxfId="0">
-      <calculatedColumnFormula>IF(C2&gt;=0.5,"yes","no")</calculatedColumnFormula>
+    <tableColumn id="10" name="predicted label (cutpoint @ 0.5)" dataDxfId="1">
+      <calculatedColumnFormula>IF(D3&gt;=0.5,"yes","no")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" name="Accuracy" dataDxfId="1"/>
+    <tableColumn id="13" name="Result?" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1115,22 +1234,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:G58"/>
+  <dimension ref="B2:F58"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="E43" sqref="E43"/>
+    <sheetView showGridLines="0" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D35" sqref="B20:D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.5703125" customWidth="1"/>
     <col min="3" max="3" width="11.28515625" customWidth="1"/>
-    <col min="4" max="5" width="16.85546875" customWidth="1"/>
-    <col min="6" max="6" width="8.28515625" customWidth="1"/>
-    <col min="7" max="7" width="20.85546875" customWidth="1"/>
+    <col min="4" max="4" width="16.85546875" customWidth="1"/>
+    <col min="5" max="5" width="8.28515625" customWidth="1"/>
+    <col min="6" max="6" width="20.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1141,16 +1260,13 @@
         <v>6</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B3" s="1">
         <v>1</v>
       </c>
@@ -1160,15 +1276,14 @@
       <c r="D3" s="5">
         <v>2.3281083079360743</v>
       </c>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5">
+      <c r="E3" s="5">
         <v>1.4625752928304196</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="F3" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B4" s="1">
         <v>2</v>
       </c>
@@ -1178,15 +1293,14 @@
       <c r="D4" s="5">
         <v>2.3659778072332602</v>
       </c>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5">
+      <c r="E4" s="5">
         <v>0.18142692771272007</v>
       </c>
-      <c r="G4" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="F4" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B5" s="1">
         <v>3</v>
       </c>
@@ -1196,15 +1310,14 @@
       <c r="D5" s="5">
         <v>1.5658270994358974</v>
       </c>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5">
+      <c r="E5" s="5">
         <v>0.97330971384593212</v>
       </c>
-      <c r="G5" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="F5" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B6" s="1">
         <v>4</v>
       </c>
@@ -1214,15 +1327,14 @@
       <c r="D6" s="5">
         <v>2.4770582353479957</v>
       </c>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5">
+      <c r="E6" s="5">
         <v>0.74970571353444382</v>
       </c>
-      <c r="G6" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="F6" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B7" s="1">
         <v>5</v>
       </c>
@@ -1232,15 +1344,14 @@
       <c r="D7" s="5">
         <v>1.9916685370063065</v>
       </c>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5">
+      <c r="E7" s="5">
         <v>0.41890015790106672</v>
       </c>
-      <c r="G7" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="F7" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B8" s="1">
         <v>6</v>
       </c>
@@ -1250,15 +1361,14 @@
       <c r="D8" s="5">
         <v>2.3590020815989559</v>
       </c>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5">
+      <c r="E8" s="5">
         <v>0.48792683341742649</v>
       </c>
-      <c r="G8" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="F8" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B9" s="1">
         <v>7</v>
       </c>
@@ -1268,15 +1378,14 @@
       <c r="D9" s="5">
         <v>2.3981275903452168</v>
       </c>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5">
+      <c r="E9" s="5">
         <v>7.011122132430081E-2</v>
       </c>
-      <c r="G9" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="F9" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B10" s="1">
         <v>8</v>
       </c>
@@ -1286,15 +1395,14 @@
       <c r="D10" s="5">
         <v>2.4189506973181651</v>
       </c>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5">
+      <c r="E10" s="5">
         <v>0.14745508926452278</v>
       </c>
-      <c r="G10" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="F10" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B11" s="1">
         <v>9</v>
       </c>
@@ -1304,15 +1412,14 @@
       <c r="D11" s="5">
         <v>1.9088775292035192</v>
       </c>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5">
+      <c r="E11" s="5">
         <v>0.1589815861072853</v>
       </c>
-      <c r="G11" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="F11" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B12" s="1">
         <v>10</v>
       </c>
@@ -1322,15 +1429,14 @@
       <c r="D12" s="5">
         <v>1.9925943317236325</v>
       </c>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5">
+      <c r="E12" s="5">
         <v>0.92551533089933824</v>
       </c>
-      <c r="G12" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="F12" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B13" s="1">
         <v>11</v>
       </c>
@@ -1340,15 +1446,14 @@
       <c r="D13" s="5">
         <v>1.6733267918895423</v>
       </c>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5">
+      <c r="E13" s="5">
         <v>1.2696236467355697</v>
       </c>
-      <c r="G13" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="F13" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B14" s="1">
         <v>12</v>
       </c>
@@ -1358,15 +1463,14 @@
       <c r="D14" s="5">
         <v>2.34028739775421</v>
       </c>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5">
+      <c r="E14" s="5">
         <v>0.34076892279952953</v>
       </c>
-      <c r="G14" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="F14" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B15" s="1">
         <v>13</v>
       </c>
@@ -1376,15 +1480,14 @@
       <c r="D15" s="5">
         <v>2.2908814624504448</v>
       </c>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5">
+      <c r="E15" s="5">
         <v>0.33488328503998088</v>
       </c>
-      <c r="G15" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="F15" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B16" s="1">
         <v>14</v>
       </c>
@@ -1394,15 +1497,14 @@
       <c r="D16" s="5">
         <v>1.9898300128979649</v>
       </c>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5">
+      <c r="E16" s="5">
         <v>0.23254575483364448</v>
       </c>
-      <c r="G16" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="F16" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B17" s="1">
         <v>15</v>
       </c>
@@ -1412,15 +1514,14 @@
       <c r="D17" s="5">
         <v>2.381613803912372</v>
       </c>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5">
+      <c r="E17" s="5">
         <v>0.59999516538851416</v>
       </c>
-      <c r="G17" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F17" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B20" s="1" t="s">
         <v>0</v>
       </c>
@@ -1430,9 +1531,8 @@
       <c r="D20" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E20" s="2"/>
-    </row>
-    <row r="21" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B21" s="1">
         <v>1</v>
       </c>
@@ -1442,9 +1542,8 @@
       <c r="D21" s="2">
         <v>0.8</v>
       </c>
-      <c r="E21" s="2"/>
-    </row>
-    <row r="22" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B22" s="1">
         <v>2</v>
       </c>
@@ -1454,9 +1553,8 @@
       <c r="D22" s="2">
         <v>0.2</v>
       </c>
-      <c r="E22" s="2"/>
-    </row>
-    <row r="23" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B23" s="1">
         <v>3</v>
       </c>
@@ -1466,9 +1564,8 @@
       <c r="D23" s="2">
         <v>0.14000000000000001</v>
       </c>
-      <c r="E23" s="2"/>
-    </row>
-    <row r="24" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B24" s="1">
         <v>4</v>
       </c>
@@ -1478,9 +1575,8 @@
       <c r="D24" s="2">
         <v>0.98</v>
       </c>
-      <c r="E24" s="2"/>
-    </row>
-    <row r="25" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B25" s="1">
         <v>5</v>
       </c>
@@ -1490,9 +1586,8 @@
       <c r="D25" s="2">
         <v>0.4</v>
       </c>
-      <c r="E25" s="2"/>
-    </row>
-    <row r="26" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B26" s="1">
         <v>6</v>
       </c>
@@ -1502,9 +1597,8 @@
       <c r="D26" s="2">
         <v>0.23</v>
       </c>
-      <c r="E26" s="2"/>
-    </row>
-    <row r="27" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B27" s="1">
         <v>7</v>
       </c>
@@ -1514,9 +1608,8 @@
       <c r="D27" s="2">
         <v>0.21</v>
       </c>
-      <c r="E27" s="2"/>
-    </row>
-    <row r="28" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B28" s="1">
         <v>8</v>
       </c>
@@ -1526,9 +1619,8 @@
       <c r="D28" s="2">
         <v>0.87</v>
       </c>
-      <c r="E28" s="2"/>
-    </row>
-    <row r="29" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B29" s="1">
         <v>9</v>
       </c>
@@ -1538,9 +1630,8 @@
       <c r="D29" s="2">
         <v>0.11</v>
       </c>
-      <c r="E29" s="2"/>
-    </row>
-    <row r="30" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B30" s="1">
         <v>10</v>
       </c>
@@ -1550,9 +1641,8 @@
       <c r="D30" s="2">
         <v>0.5</v>
       </c>
-      <c r="E30" s="2"/>
-    </row>
-    <row r="31" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B31" s="1">
         <v>11</v>
       </c>
@@ -1562,9 +1652,8 @@
       <c r="D31" s="2">
         <v>0.89</v>
       </c>
-      <c r="E31" s="2"/>
-    </row>
-    <row r="32" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B32" s="1">
         <v>12</v>
       </c>
@@ -1574,9 +1663,8 @@
       <c r="D32" s="2">
         <v>0.11</v>
       </c>
-      <c r="E32" s="2"/>
-    </row>
-    <row r="33" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B33" s="1">
         <v>13</v>
       </c>
@@ -1586,9 +1674,8 @@
       <c r="D33" s="2">
         <v>0.34</v>
       </c>
-      <c r="E33" s="2"/>
-    </row>
-    <row r="34" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B34" s="1">
         <v>14</v>
       </c>
@@ -1598,9 +1685,8 @@
       <c r="D34" s="2">
         <v>0.23</v>
       </c>
-      <c r="E34" s="2"/>
-    </row>
-    <row r="35" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B35" s="1">
         <v>15</v>
       </c>
@@ -1610,16 +1696,14 @@
       <c r="D35" s="2">
         <v>0.85</v>
       </c>
-      <c r="E35" s="2"/>
-    </row>
-    <row r="41" spans="2:5" ht="111" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="41" spans="2:4" ht="111" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C41" s="7" t="s">
         <v>9</v>
       </c>
       <c r="D41" s="7"/>
-      <c r="E41" s="6"/>
-    </row>
-    <row r="43" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="43" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B43" s="1" t="s">
         <v>0</v>
       </c>
@@ -1629,11 +1713,8 @@
       <c r="D43" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E43" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="44" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="44" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B44" s="1">
         <v>4</v>
       </c>
@@ -1643,9 +1724,8 @@
       <c r="D44" s="2">
         <v>0.98</v>
       </c>
-      <c r="E44" s="2"/>
-    </row>
-    <row r="45" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="45" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B45" s="1">
         <v>11</v>
       </c>
@@ -1655,9 +1735,8 @@
       <c r="D45" s="2">
         <v>0.89</v>
       </c>
-      <c r="E45" s="2"/>
-    </row>
-    <row r="46" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="46" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B46" s="1">
         <v>8</v>
       </c>
@@ -1667,9 +1746,8 @@
       <c r="D46" s="2">
         <v>0.87</v>
       </c>
-      <c r="E46" s="2"/>
-    </row>
-    <row r="47" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="47" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B47" s="1">
         <v>15</v>
       </c>
@@ -1679,9 +1757,8 @@
       <c r="D47" s="2">
         <v>0.85</v>
       </c>
-      <c r="E47" s="2"/>
-    </row>
-    <row r="48" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="48" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B48" s="1">
         <v>1</v>
       </c>
@@ -1691,9 +1768,8 @@
       <c r="D48" s="2">
         <v>0.8</v>
       </c>
-      <c r="E48" s="2"/>
-    </row>
-    <row r="49" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="49" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B49" s="1">
         <v>10</v>
       </c>
@@ -1703,9 +1779,8 @@
       <c r="D49" s="2">
         <v>0.5</v>
       </c>
-      <c r="E49" s="2"/>
-    </row>
-    <row r="50" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="50" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B50" s="1">
         <v>5</v>
       </c>
@@ -1715,9 +1790,8 @@
       <c r="D50" s="2">
         <v>0.4</v>
       </c>
-      <c r="E50" s="2"/>
-    </row>
-    <row r="51" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="51" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B51" s="1">
         <v>13</v>
       </c>
@@ -1727,9 +1801,8 @@
       <c r="D51" s="2">
         <v>0.34</v>
       </c>
-      <c r="E51" s="2"/>
-    </row>
-    <row r="52" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="52" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B52" s="1">
         <v>6</v>
       </c>
@@ -1739,9 +1812,8 @@
       <c r="D52" s="2">
         <v>0.23</v>
       </c>
-      <c r="E52" s="2"/>
-    </row>
-    <row r="53" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="53" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B53" s="1">
         <v>14</v>
       </c>
@@ -1751,9 +1823,8 @@
       <c r="D53" s="2">
         <v>0.23</v>
       </c>
-      <c r="E53" s="2"/>
-    </row>
-    <row r="54" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="54" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B54" s="1">
         <v>7</v>
       </c>
@@ -1763,9 +1834,8 @@
       <c r="D54" s="2">
         <v>0.21</v>
       </c>
-      <c r="E54" s="2"/>
-    </row>
-    <row r="55" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="55" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B55" s="1">
         <v>2</v>
       </c>
@@ -1775,9 +1845,8 @@
       <c r="D55" s="2">
         <v>0.2</v>
       </c>
-      <c r="E55" s="2"/>
-    </row>
-    <row r="56" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="56" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B56" s="1">
         <v>3</v>
       </c>
@@ -1787,9 +1856,8 @@
       <c r="D56" s="2">
         <v>0.14000000000000001</v>
       </c>
-      <c r="E56" s="2"/>
-    </row>
-    <row r="57" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="57" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B57" s="1">
         <v>9</v>
       </c>
@@ -1799,9 +1867,8 @@
       <c r="D57" s="2">
         <v>0.11</v>
       </c>
-      <c r="E57" s="2"/>
-    </row>
-    <row r="58" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="58" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B58" s="1">
         <v>12</v>
       </c>
@@ -1811,7 +1878,6 @@
       <c r="D58" s="2">
         <v>0.11</v>
       </c>
-      <c r="E58" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1830,316 +1896,319 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E20"/>
+  <dimension ref="B2:I20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="33.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.85546875" customWidth="1"/>
+    <col min="5" max="5" width="33.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="2" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
+      <c r="D2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B3" s="1">
         <v>4</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="2">
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="2">
         <v>0.98</v>
       </c>
-      <c r="D2" s="8" t="str">
-        <f t="shared" ref="D2:D16" si="0">IF(C2&gt;=0.5,"yes","no")</f>
+      <c r="E3" s="6" t="str">
+        <f t="shared" ref="E3:E17" si="0">IF(D3&gt;=0.5,"yes","no")</f>
         <v>yes</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
+      <c r="F3" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B4" s="1">
         <v>11</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="2">
+      <c r="C4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="2">
         <v>0.89</v>
       </c>
-      <c r="D3" s="8" t="str">
+      <c r="E4" s="6" t="str">
         <f t="shared" si="0"/>
         <v>yes</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
+      <c r="F4" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B5" s="1">
         <v>8</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="2">
+      <c r="C5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="2">
         <v>0.87</v>
       </c>
-      <c r="D4" s="8" t="str">
+      <c r="E5" s="6" t="str">
         <f t="shared" si="0"/>
         <v>yes</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
+      <c r="F5" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="2">
+    </row>
+    <row r="6" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B6" s="1">
+        <v>15</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="2">
         <v>0.85</v>
       </c>
-      <c r="D5" s="8" t="str">
+      <c r="E6" s="6" t="str">
         <f t="shared" si="0"/>
         <v>yes</v>
       </c>
-      <c r="E5" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
+      <c r="F6" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B7" s="1">
         <v>1</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C6" s="2">
+      <c r="C7" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" s="2">
         <v>0.8</v>
       </c>
-      <c r="D6" s="8" t="str">
+      <c r="E7" s="6" t="str">
         <f t="shared" si="0"/>
         <v>yes</v>
       </c>
-      <c r="E6" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
+      <c r="F7" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B8" s="1">
         <v>10</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" s="2">
+      <c r="C8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="2">
         <v>0.5</v>
       </c>
-      <c r="D7" s="8" t="str">
+      <c r="E8" s="6" t="str">
         <f t="shared" si="0"/>
         <v>yes</v>
       </c>
-      <c r="E7" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
+      <c r="F8" s="8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B9" s="1">
         <v>5</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="2">
+      <c r="C9" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" s="2">
         <v>0.4</v>
       </c>
-      <c r="D8" s="8" t="str">
+      <c r="E9" s="6" t="str">
         <f t="shared" si="0"/>
         <v>no</v>
       </c>
-      <c r="E8" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
+      <c r="F9" s="8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B10" s="1">
         <v>13</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C9" s="2">
+      <c r="C10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D10" s="2">
         <v>0.34</v>
       </c>
-      <c r="D9" s="8" t="str">
+      <c r="E10" s="6" t="str">
         <f t="shared" si="0"/>
         <v>no</v>
       </c>
-      <c r="E9" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
+      <c r="F10" s="8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B11" s="1">
         <v>6</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C10" s="2">
+      <c r="C11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D11" s="2">
         <v>0.23</v>
       </c>
-      <c r="D10" s="8" t="str">
+      <c r="E11" s="6" t="str">
         <f t="shared" si="0"/>
         <v>no</v>
       </c>
-      <c r="E10" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
+      <c r="F11" s="8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B12" s="1">
         <v>14</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C11" s="2">
+      <c r="C12" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D12" s="2">
         <v>0.23</v>
       </c>
-      <c r="D11" s="8" t="str">
+      <c r="E12" s="6" t="str">
         <f t="shared" si="0"/>
         <v>no</v>
       </c>
-      <c r="E11" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
+      <c r="F12" s="8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B13" s="1">
         <v>7</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C12" s="2">
+      <c r="C13" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D13" s="2">
         <v>0.21</v>
       </c>
-      <c r="D12" s="8" t="str">
+      <c r="E13" s="6" t="str">
         <f t="shared" si="0"/>
         <v>no</v>
       </c>
-      <c r="E12" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
-        <v>2</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C13" s="2">
+      <c r="F13" s="8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B14" s="1">
+        <v>2</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D14" s="2">
         <v>0.2</v>
       </c>
-      <c r="D13" s="8" t="str">
+      <c r="E14" s="6" t="str">
         <f t="shared" si="0"/>
         <v>no</v>
       </c>
-      <c r="E13" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
-        <v>3</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C14" s="2">
+      <c r="F14" s="8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B15" s="1">
+        <v>3</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D15" s="2">
         <v>0.14000000000000001</v>
       </c>
-      <c r="D14" s="8" t="str">
+      <c r="E15" s="6" t="str">
         <f t="shared" si="0"/>
         <v>no</v>
       </c>
-      <c r="E14" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
+      <c r="F15" s="8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B16" s="1">
         <v>9</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C15" s="2">
+      <c r="C16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D16" s="2">
         <v>0.11</v>
       </c>
-      <c r="D15" s="8" t="str">
+      <c r="E16" s="6" t="str">
         <f t="shared" si="0"/>
         <v>no</v>
       </c>
-      <c r="E15" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
+      <c r="F16" s="8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B17" s="1">
         <v>12</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C16" s="2">
+      <c r="C17" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D17" s="2">
         <v>0.11</v>
       </c>
-      <c r="D16" s="8" t="str">
+      <c r="E17" s="6" t="str">
         <f t="shared" si="0"/>
         <v>no</v>
       </c>
-      <c r="E16" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="20" spans="3:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C20" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>14</v>
+      <c r="F17" s="8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="H20" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>
--- a/scoring/examples.xlsx
+++ b/scoring/examples.xlsx
@@ -1,23 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26311"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MiMundo\Proyectos\DSH\data-science-live-book\book\scoring\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/oblaphouses/repos/data-science-live-book/scoring/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13560" windowHeight="6285" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="20360"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -82,6 +85,9 @@
     <t>predicted label (cutpoint @ 0.5)</t>
   </si>
   <si>
+    <t>Accuracy</t>
+  </si>
+  <si>
     <t>TP</t>
   </si>
   <si>
@@ -93,9 +99,6 @@
   <si>
     <t>TN</t>
   </si>
-  <si>
-    <t>Result?</t>
-  </si>
 </sst>
 </file>
 
@@ -104,7 +107,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -158,13 +161,6 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="12"/>
-      <color theme="3" tint="-0.499984740745262"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -197,7 +193,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -220,9 +216,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -240,7 +233,7 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="12"/>
-        <color theme="3" tint="-0.499984740745262"/>
+        <color theme="5" tint="-0.249977111117893"/>
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
@@ -740,7 +733,7 @@
         <a:p>
           <a:r>
             <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t>Several examples only mention how to extract the final class, yet by default many alghoritms stablish the cut point in 0.5, and this probably lead to a not-optimal result. </a:t>
+            <a:t>Several examples only mention how to extract the final class. By default many alghoritms stablish the cut point in 0.5, and this probably lead to a not-optimal result. </a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -750,147 +743,6 @@
           <a:r>
             <a:rPr lang="en-US" sz="1100" baseline="0"/>
             <a:t>In fact, Accuracy Metric or Confution Matrix must be always related to a custom cut point.</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>1276350</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>1009650</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="TextBox 1"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9210675" y="266700"/>
-          <a:ext cx="3819525" cy="2352675"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t>Where the cut-point hitted correctly:</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t>TP: True Positive </a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>TN: True Negative</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US">
-            <a:effectLst/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t>And where</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t> not...</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t>FP: False Positive</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t>FN: False Negative</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t>Positive means to the less representative class: `yes`. </a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t>And</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t> is in this point (score + cutpoint), where most of the accuracy metrics appear: ROC/AUC, Confusion Matrix, Accuracy Kolmogorov-Smirnov (KS), Lift/Gain curve, and others...</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="1100"/>
         </a:p>
@@ -958,6 +810,9 @@
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table13456" displayName="Table13456" ref="B2:F17" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
+  <sortState ref="B2:D16">
+    <sortCondition descending="1" ref="D42"/>
+  </sortState>
   <tableColumns count="5">
     <tableColumn id="1" name="id" dataDxfId="4"/>
     <tableColumn id="5" name="target" dataDxfId="3"/>
@@ -965,7 +820,7 @@
     <tableColumn id="10" name="predicted label (cutpoint @ 0.5)" dataDxfId="1">
       <calculatedColumnFormula>IF(D3&gt;=0.5,"yes","no")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" name="Result?" dataDxfId="0"/>
+    <tableColumn id="13" name="Accuracy" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1236,20 +1091,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:F58"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D35" sqref="B20:D35"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A42" zoomScale="203" zoomScaleNormal="203" zoomScalePageLayoutView="203" workbookViewId="0">
+      <selection activeCell="G56" sqref="G56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.5703125" customWidth="1"/>
-    <col min="3" max="3" width="11.28515625" customWidth="1"/>
-    <col min="4" max="4" width="16.85546875" customWidth="1"/>
-    <col min="5" max="5" width="8.28515625" customWidth="1"/>
-    <col min="6" max="6" width="20.85546875" customWidth="1"/>
+    <col min="1" max="1" width="4.5" customWidth="1"/>
+    <col min="3" max="3" width="11.33203125" customWidth="1"/>
+    <col min="4" max="4" width="16.83203125" customWidth="1"/>
+    <col min="5" max="5" width="8.33203125" customWidth="1"/>
+    <col min="6" max="6" width="20.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1266,7 +1121,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B3" s="1">
         <v>1</v>
       </c>
@@ -1283,7 +1138,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B4" s="1">
         <v>2</v>
       </c>
@@ -1300,7 +1155,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B5" s="1">
         <v>3</v>
       </c>
@@ -1317,7 +1172,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B6" s="1">
         <v>4</v>
       </c>
@@ -1334,7 +1189,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B7" s="1">
         <v>5</v>
       </c>
@@ -1351,7 +1206,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B8" s="1">
         <v>6</v>
       </c>
@@ -1368,7 +1223,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B9" s="1">
         <v>7</v>
       </c>
@@ -1385,7 +1240,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B10" s="1">
         <v>8</v>
       </c>
@@ -1402,7 +1257,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B11" s="1">
         <v>9</v>
       </c>
@@ -1419,7 +1274,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B12" s="1">
         <v>10</v>
       </c>
@@ -1436,7 +1291,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B13" s="1">
         <v>11</v>
       </c>
@@ -1453,7 +1308,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B14" s="1">
         <v>12</v>
       </c>
@@ -1470,7 +1325,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B15" s="1">
         <v>13</v>
       </c>
@@ -1487,7 +1342,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B16" s="1">
         <v>14</v>
       </c>
@@ -1504,7 +1359,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B17" s="1">
         <v>15</v>
       </c>
@@ -1521,7 +1376,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:6" ht="16" x14ac:dyDescent="0.2">
       <c r="B20" s="1" t="s">
         <v>0</v>
       </c>
@@ -1532,7 +1387,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:6" ht="16" x14ac:dyDescent="0.2">
       <c r="B21" s="1">
         <v>1</v>
       </c>
@@ -1543,7 +1398,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="22" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:6" ht="16" x14ac:dyDescent="0.2">
       <c r="B22" s="1">
         <v>2</v>
       </c>
@@ -1554,7 +1409,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="23" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:6" ht="16" x14ac:dyDescent="0.2">
       <c r="B23" s="1">
         <v>3</v>
       </c>
@@ -1565,7 +1420,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="24" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:6" ht="16" x14ac:dyDescent="0.2">
       <c r="B24" s="1">
         <v>4</v>
       </c>
@@ -1576,7 +1431,7 @@
         <v>0.98</v>
       </c>
     </row>
-    <row r="25" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:6" ht="16" x14ac:dyDescent="0.2">
       <c r="B25" s="1">
         <v>5</v>
       </c>
@@ -1587,7 +1442,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="26" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:6" ht="16" x14ac:dyDescent="0.2">
       <c r="B26" s="1">
         <v>6</v>
       </c>
@@ -1598,7 +1453,7 @@
         <v>0.23</v>
       </c>
     </row>
-    <row r="27" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:6" ht="16" x14ac:dyDescent="0.2">
       <c r="B27" s="1">
         <v>7</v>
       </c>
@@ -1609,7 +1464,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="28" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:6" ht="16" x14ac:dyDescent="0.2">
       <c r="B28" s="1">
         <v>8</v>
       </c>
@@ -1620,7 +1475,7 @@
         <v>0.87</v>
       </c>
     </row>
-    <row r="29" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:6" ht="16" x14ac:dyDescent="0.2">
       <c r="B29" s="1">
         <v>9</v>
       </c>
@@ -1631,7 +1486,7 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="30" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:6" ht="16" x14ac:dyDescent="0.2">
       <c r="B30" s="1">
         <v>10</v>
       </c>
@@ -1642,7 +1497,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="31" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:6" ht="16" x14ac:dyDescent="0.2">
       <c r="B31" s="1">
         <v>11</v>
       </c>
@@ -1653,7 +1508,7 @@
         <v>0.89</v>
       </c>
     </row>
-    <row r="32" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:6" ht="16" x14ac:dyDescent="0.2">
       <c r="B32" s="1">
         <v>12</v>
       </c>
@@ -1664,7 +1519,7 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="33" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B33" s="1">
         <v>13</v>
       </c>
@@ -1675,7 +1530,7 @@
         <v>0.34</v>
       </c>
     </row>
-    <row r="34" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B34" s="1">
         <v>14</v>
       </c>
@@ -1686,7 +1541,7 @@
         <v>0.23</v>
       </c>
     </row>
-    <row r="35" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B35" s="1">
         <v>15</v>
       </c>
@@ -1697,13 +1552,13 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="41" spans="2:4" ht="111" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:4" ht="111" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C41" s="7" t="s">
         <v>9</v>
       </c>
       <c r="D41" s="7"/>
     </row>
-    <row r="43" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B43" s="1" t="s">
         <v>0</v>
       </c>
@@ -1714,7 +1569,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="44" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B44" s="1">
         <v>4</v>
       </c>
@@ -1725,7 +1580,7 @@
         <v>0.98</v>
       </c>
     </row>
-    <row r="45" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B45" s="1">
         <v>11</v>
       </c>
@@ -1736,7 +1591,7 @@
         <v>0.89</v>
       </c>
     </row>
-    <row r="46" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B46" s="1">
         <v>8</v>
       </c>
@@ -1747,7 +1602,7 @@
         <v>0.87</v>
       </c>
     </row>
-    <row r="47" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B47" s="1">
         <v>15</v>
       </c>
@@ -1758,7 +1613,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="48" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B48" s="1">
         <v>1</v>
       </c>
@@ -1769,7 +1624,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="49" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B49" s="1">
         <v>10</v>
       </c>
@@ -1780,7 +1635,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="50" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B50" s="1">
         <v>5</v>
       </c>
@@ -1791,7 +1646,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="51" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B51" s="1">
         <v>13</v>
       </c>
@@ -1802,7 +1657,7 @@
         <v>0.34</v>
       </c>
     </row>
-    <row r="52" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B52" s="1">
         <v>6</v>
       </c>
@@ -1813,7 +1668,7 @@
         <v>0.23</v>
       </c>
     </row>
-    <row r="53" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B53" s="1">
         <v>14</v>
       </c>
@@ -1824,7 +1679,7 @@
         <v>0.23</v>
       </c>
     </row>
-    <row r="54" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B54" s="1">
         <v>7</v>
       </c>
@@ -1835,7 +1690,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="55" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B55" s="1">
         <v>2</v>
       </c>
@@ -1846,7 +1701,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="56" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B56" s="1">
         <v>3</v>
       </c>
@@ -1857,7 +1712,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="57" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B57" s="1">
         <v>9</v>
       </c>
@@ -1868,7 +1723,7 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="58" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B58" s="1">
         <v>12</v>
       </c>
@@ -1896,19 +1751,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:I20"/>
+  <dimension ref="B2:F21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView zoomScale="137" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="20.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.85546875" customWidth="1"/>
-    <col min="5" max="5" width="33.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.33203125" customWidth="1"/>
+    <col min="5" max="5" width="33.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:6" ht="16" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1921,11 +1776,11 @@
       <c r="E2" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F2" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" ht="16" x14ac:dyDescent="0.2">
       <c r="B3" s="1">
         <v>4</v>
       </c>
@@ -1939,11 +1794,11 @@
         <f t="shared" ref="E3:E17" si="0">IF(D3&gt;=0.5,"yes","no")</f>
         <v>yes</v>
       </c>
-      <c r="F3" s="8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F3" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" ht="16" x14ac:dyDescent="0.2">
       <c r="B4" s="1">
         <v>11</v>
       </c>
@@ -1957,11 +1812,11 @@
         <f t="shared" si="0"/>
         <v>yes</v>
       </c>
-      <c r="F4" s="8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F4" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" ht="16" x14ac:dyDescent="0.2">
       <c r="B5" s="1">
         <v>8</v>
       </c>
@@ -1975,11 +1830,11 @@
         <f t="shared" si="0"/>
         <v>yes</v>
       </c>
-      <c r="F5" s="8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F5" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" ht="16" x14ac:dyDescent="0.2">
       <c r="B6" s="1">
         <v>15</v>
       </c>
@@ -1993,11 +1848,11 @@
         <f t="shared" si="0"/>
         <v>yes</v>
       </c>
-      <c r="F6" s="8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F6" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" ht="16" x14ac:dyDescent="0.2">
       <c r="B7" s="1">
         <v>1</v>
       </c>
@@ -2011,11 +1866,11 @@
         <f t="shared" si="0"/>
         <v>yes</v>
       </c>
-      <c r="F7" s="8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F7" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" ht="16" x14ac:dyDescent="0.2">
       <c r="B8" s="1">
         <v>10</v>
       </c>
@@ -2029,11 +1884,11 @@
         <f t="shared" si="0"/>
         <v>yes</v>
       </c>
-      <c r="F8" s="8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F8" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" ht="16" x14ac:dyDescent="0.2">
       <c r="B9" s="1">
         <v>5</v>
       </c>
@@ -2047,11 +1902,11 @@
         <f t="shared" si="0"/>
         <v>no</v>
       </c>
-      <c r="F9" s="8" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F9" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" ht="16" x14ac:dyDescent="0.2">
       <c r="B10" s="1">
         <v>13</v>
       </c>
@@ -2065,11 +1920,11 @@
         <f t="shared" si="0"/>
         <v>no</v>
       </c>
-      <c r="F10" s="8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F10" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" ht="16" x14ac:dyDescent="0.2">
       <c r="B11" s="1">
         <v>6</v>
       </c>
@@ -2083,11 +1938,11 @@
         <f t="shared" si="0"/>
         <v>no</v>
       </c>
-      <c r="F11" s="8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F11" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" ht="16" x14ac:dyDescent="0.2">
       <c r="B12" s="1">
         <v>14</v>
       </c>
@@ -2101,11 +1956,11 @@
         <f t="shared" si="0"/>
         <v>no</v>
       </c>
-      <c r="F12" s="8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="13" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F12" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" ht="16" x14ac:dyDescent="0.2">
       <c r="B13" s="1">
         <v>7</v>
       </c>
@@ -2119,11 +1974,11 @@
         <f t="shared" si="0"/>
         <v>no</v>
       </c>
-      <c r="F13" s="8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="14" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F13" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" ht="16" x14ac:dyDescent="0.2">
       <c r="B14" s="1">
         <v>2</v>
       </c>
@@ -2137,11 +1992,11 @@
         <f t="shared" si="0"/>
         <v>no</v>
       </c>
-      <c r="F14" s="8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="15" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F14" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" ht="16" x14ac:dyDescent="0.2">
       <c r="B15" s="1">
         <v>3</v>
       </c>
@@ -2155,11 +2010,11 @@
         <f t="shared" si="0"/>
         <v>no</v>
       </c>
-      <c r="F15" s="8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="16" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F15" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" ht="16" x14ac:dyDescent="0.2">
       <c r="B16" s="1">
         <v>9</v>
       </c>
@@ -2173,11 +2028,11 @@
         <f t="shared" si="0"/>
         <v>no</v>
       </c>
-      <c r="F16" s="8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="17" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F16" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" ht="16" x14ac:dyDescent="0.2">
       <c r="B17" s="1">
         <v>12</v>
       </c>
@@ -2191,24 +2046,22 @@
         <f t="shared" si="0"/>
         <v>no</v>
       </c>
-      <c r="F17" s="8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="20" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="H20" s="3" t="s">
+      <c r="F17" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="D21" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="I20" s="3" t="s">
+      <c r="E21" s="3" t="s">
         <v>12</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
   <tableParts count="1">
-    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
 </file>
--- a/scoring/examples.xlsx
+++ b/scoring/examples.xlsx
@@ -1,27 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26311"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/oblaphouses/repos/data-science-live-book/scoring/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MiMundo\Proyectos\DSH\data-science-live-book\book\scoring\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="20360"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="38400" windowHeight="20355" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
-    </ext>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
@@ -107,7 +107,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -161,13 +161,37 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -190,10 +214,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -216,8 +242,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Bad" xfId="2" builtinId="27"/>
+    <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="24">
@@ -1091,20 +1125,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:F58"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A42" zoomScale="203" zoomScaleNormal="203" zoomScalePageLayoutView="203" workbookViewId="0">
-      <selection activeCell="G56" sqref="G56"/>
+    <sheetView showGridLines="0" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="203" workbookViewId="0">
+      <selection activeCell="F76" sqref="F76"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.5" customWidth="1"/>
-    <col min="3" max="3" width="11.33203125" customWidth="1"/>
-    <col min="4" max="4" width="16.83203125" customWidth="1"/>
-    <col min="5" max="5" width="8.33203125" customWidth="1"/>
-    <col min="6" max="6" width="20.83203125" customWidth="1"/>
+    <col min="1" max="1" width="4.42578125" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" customWidth="1"/>
+    <col min="4" max="4" width="16.85546875" customWidth="1"/>
+    <col min="5" max="5" width="8.28515625" customWidth="1"/>
+    <col min="6" max="6" width="20.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1121,7 +1155,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B3" s="1">
         <v>1</v>
       </c>
@@ -1138,7 +1172,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B4" s="1">
         <v>2</v>
       </c>
@@ -1155,7 +1189,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B5" s="1">
         <v>3</v>
       </c>
@@ -1172,7 +1206,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B6" s="1">
         <v>4</v>
       </c>
@@ -1189,7 +1223,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B7" s="1">
         <v>5</v>
       </c>
@@ -1206,7 +1240,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B8" s="1">
         <v>6</v>
       </c>
@@ -1223,7 +1257,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B9" s="1">
         <v>7</v>
       </c>
@@ -1240,7 +1274,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B10" s="1">
         <v>8</v>
       </c>
@@ -1257,7 +1291,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B11" s="1">
         <v>9</v>
       </c>
@@ -1274,7 +1308,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B12" s="1">
         <v>10</v>
       </c>
@@ -1291,7 +1325,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B13" s="1">
         <v>11</v>
       </c>
@@ -1308,7 +1342,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B14" s="1">
         <v>12</v>
       </c>
@@ -1325,7 +1359,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B15" s="1">
         <v>13</v>
       </c>
@@ -1342,7 +1376,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B16" s="1">
         <v>14</v>
       </c>
@@ -1359,7 +1393,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B17" s="1">
         <v>15</v>
       </c>
@@ -1376,7 +1410,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="2:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B20" s="1" t="s">
         <v>0</v>
       </c>
@@ -1387,7 +1421,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="2:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B21" s="1">
         <v>1</v>
       </c>
@@ -1398,7 +1432,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="22" spans="2:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B22" s="1">
         <v>2</v>
       </c>
@@ -1409,7 +1443,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="23" spans="2:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B23" s="1">
         <v>3</v>
       </c>
@@ -1420,7 +1454,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="24" spans="2:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B24" s="1">
         <v>4</v>
       </c>
@@ -1431,7 +1465,7 @@
         <v>0.98</v>
       </c>
     </row>
-    <row r="25" spans="2:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B25" s="1">
         <v>5</v>
       </c>
@@ -1442,7 +1476,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="26" spans="2:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B26" s="1">
         <v>6</v>
       </c>
@@ -1453,7 +1487,7 @@
         <v>0.23</v>
       </c>
     </row>
-    <row r="27" spans="2:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B27" s="1">
         <v>7</v>
       </c>
@@ -1464,7 +1498,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="28" spans="2:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B28" s="1">
         <v>8</v>
       </c>
@@ -1475,7 +1509,7 @@
         <v>0.87</v>
       </c>
     </row>
-    <row r="29" spans="2:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B29" s="1">
         <v>9</v>
       </c>
@@ -1486,7 +1520,7 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="30" spans="2:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B30" s="1">
         <v>10</v>
       </c>
@@ -1497,7 +1531,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="31" spans="2:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B31" s="1">
         <v>11</v>
       </c>
@@ -1508,7 +1542,7 @@
         <v>0.89</v>
       </c>
     </row>
-    <row r="32" spans="2:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B32" s="1">
         <v>12</v>
       </c>
@@ -1519,7 +1553,7 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="33" spans="2:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B33" s="1">
         <v>13</v>
       </c>
@@ -1530,7 +1564,7 @@
         <v>0.34</v>
       </c>
     </row>
-    <row r="34" spans="2:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B34" s="1">
         <v>14</v>
       </c>
@@ -1541,7 +1575,7 @@
         <v>0.23</v>
       </c>
     </row>
-    <row r="35" spans="2:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B35" s="1">
         <v>15</v>
       </c>
@@ -1552,13 +1586,13 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="41" spans="2:4" ht="111" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:4" ht="111" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C41" s="7" t="s">
         <v>9</v>
       </c>
       <c r="D41" s="7"/>
     </row>
-    <row r="43" spans="2:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B43" s="1" t="s">
         <v>0</v>
       </c>
@@ -1569,7 +1603,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="44" spans="2:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B44" s="1">
         <v>4</v>
       </c>
@@ -1580,7 +1614,7 @@
         <v>0.98</v>
       </c>
     </row>
-    <row r="45" spans="2:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B45" s="1">
         <v>11</v>
       </c>
@@ -1591,7 +1625,7 @@
         <v>0.89</v>
       </c>
     </row>
-    <row r="46" spans="2:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B46" s="1">
         <v>8</v>
       </c>
@@ -1602,7 +1636,7 @@
         <v>0.87</v>
       </c>
     </row>
-    <row r="47" spans="2:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B47" s="1">
         <v>15</v>
       </c>
@@ -1613,7 +1647,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="48" spans="2:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B48" s="1">
         <v>1</v>
       </c>
@@ -1624,7 +1658,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="49" spans="2:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B49" s="1">
         <v>10</v>
       </c>
@@ -1635,7 +1669,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="50" spans="2:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B50" s="1">
         <v>5</v>
       </c>
@@ -1646,7 +1680,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="51" spans="2:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B51" s="1">
         <v>13</v>
       </c>
@@ -1657,7 +1691,7 @@
         <v>0.34</v>
       </c>
     </row>
-    <row r="52" spans="2:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B52" s="1">
         <v>6</v>
       </c>
@@ -1668,7 +1702,7 @@
         <v>0.23</v>
       </c>
     </row>
-    <row r="53" spans="2:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B53" s="1">
         <v>14</v>
       </c>
@@ -1679,7 +1713,7 @@
         <v>0.23</v>
       </c>
     </row>
-    <row r="54" spans="2:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B54" s="1">
         <v>7</v>
       </c>
@@ -1690,7 +1724,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="55" spans="2:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B55" s="1">
         <v>2</v>
       </c>
@@ -1701,7 +1735,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="56" spans="2:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B56" s="1">
         <v>3</v>
       </c>
@@ -1712,7 +1746,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="57" spans="2:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B57" s="1">
         <v>9</v>
       </c>
@@ -1723,7 +1757,7 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="58" spans="2:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B58" s="1">
         <v>12</v>
       </c>
@@ -1753,17 +1787,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:F21"/>
   <sheetViews>
-    <sheetView zoomScale="137" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="20.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="20.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.33203125" customWidth="1"/>
-    <col min="5" max="5" width="33.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.28515625" customWidth="1"/>
+    <col min="5" max="5" width="33.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1780,7 +1814,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="2:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B3" s="1">
         <v>4</v>
       </c>
@@ -1794,11 +1828,11 @@
         <f t="shared" ref="E3:E17" si="0">IF(D3&gt;=0.5,"yes","no")</f>
         <v>yes</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="8" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="2:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B4" s="1">
         <v>11</v>
       </c>
@@ -1812,11 +1846,11 @@
         <f t="shared" si="0"/>
         <v>yes</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F4" s="8" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="2:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B5" s="1">
         <v>8</v>
       </c>
@@ -1830,11 +1864,11 @@
         <f t="shared" si="0"/>
         <v>yes</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="F5" s="9" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="2:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B6" s="1">
         <v>15</v>
       </c>
@@ -1848,11 +1882,11 @@
         <f t="shared" si="0"/>
         <v>yes</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="F6" s="8" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="2:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B7" s="1">
         <v>1</v>
       </c>
@@ -1866,11 +1900,11 @@
         <f t="shared" si="0"/>
         <v>yes</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="F7" s="8" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="2:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B8" s="1">
         <v>10</v>
       </c>
@@ -1884,11 +1918,11 @@
         <f t="shared" si="0"/>
         <v>yes</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="F8" s="9" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="2:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B9" s="1">
         <v>5</v>
       </c>
@@ -1902,11 +1936,11 @@
         <f t="shared" si="0"/>
         <v>no</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="F9" s="9" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="2:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B10" s="1">
         <v>13</v>
       </c>
@@ -1920,11 +1954,11 @@
         <f t="shared" si="0"/>
         <v>no</v>
       </c>
-      <c r="F10" s="2" t="s">
+      <c r="F10" s="8" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="2:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B11" s="1">
         <v>6</v>
       </c>
@@ -1938,11 +1972,11 @@
         <f t="shared" si="0"/>
         <v>no</v>
       </c>
-      <c r="F11" s="2" t="s">
+      <c r="F11" s="8" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="2:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B12" s="1">
         <v>14</v>
       </c>
@@ -1956,11 +1990,11 @@
         <f t="shared" si="0"/>
         <v>no</v>
       </c>
-      <c r="F12" s="2" t="s">
+      <c r="F12" s="8" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="2:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B13" s="1">
         <v>7</v>
       </c>
@@ -1974,11 +2008,11 @@
         <f t="shared" si="0"/>
         <v>no</v>
       </c>
-      <c r="F13" s="2" t="s">
+      <c r="F13" s="8" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="2:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B14" s="1">
         <v>2</v>
       </c>
@@ -1992,11 +2026,11 @@
         <f t="shared" si="0"/>
         <v>no</v>
       </c>
-      <c r="F14" s="2" t="s">
+      <c r="F14" s="8" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="2:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B15" s="1">
         <v>3</v>
       </c>
@@ -2010,11 +2044,11 @@
         <f t="shared" si="0"/>
         <v>no</v>
       </c>
-      <c r="F15" s="2" t="s">
+      <c r="F15" s="8" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="2:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B16" s="1">
         <v>9</v>
       </c>
@@ -2028,11 +2062,11 @@
         <f t="shared" si="0"/>
         <v>no</v>
       </c>
-      <c r="F16" s="2" t="s">
+      <c r="F16" s="8" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="2:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B17" s="1">
         <v>12</v>
       </c>
@@ -2046,11 +2080,11 @@
         <f t="shared" si="0"/>
         <v>no</v>
       </c>
-      <c r="F17" s="2" t="s">
+      <c r="F17" s="8" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="2:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D21" s="3" t="s">
         <v>11</v>
       </c>

--- a/scoring/examples.xlsx
+++ b/scoring/examples.xlsx
@@ -9,11 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="38400" windowHeight="20355" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="38400" windowHeight="20355" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet2 (2)" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511" concurrentCalc="0"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="21">
   <si>
     <t>id</t>
   </si>
@@ -99,6 +100,12 @@
   <si>
     <t>TN</t>
   </si>
+  <si>
+    <t>model 2 (bad)</t>
+  </si>
+  <si>
+    <t>model 1 (good)</t>
+  </si>
 </sst>
 </file>
 
@@ -107,7 +114,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -175,6 +182,20 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF00B050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -219,7 +240,7 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -248,13 +269,74 @@
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
     <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="24">
+  <dxfs count="34">
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -788,7 +870,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B2:F17" totalsRowShown="0" headerRowDxfId="23" dataDxfId="22">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B2:F17" totalsRowShown="0" headerRowDxfId="33" dataDxfId="32">
   <autoFilter ref="B2:F17">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -797,34 +879,34 @@
     <filterColumn colId="4" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="5">
-    <tableColumn id="1" name="id" dataDxfId="21"/>
-    <tableColumn id="2" name="x1" dataDxfId="20"/>
-    <tableColumn id="3" name="x2" dataDxfId="19"/>
-    <tableColumn id="4" name="x3" dataDxfId="18"/>
-    <tableColumn id="5" name="target" dataDxfId="17"/>
+    <tableColumn id="1" name="id" dataDxfId="31"/>
+    <tableColumn id="2" name="x1" dataDxfId="30"/>
+    <tableColumn id="3" name="x2" dataDxfId="29"/>
+    <tableColumn id="4" name="x3" dataDxfId="28"/>
+    <tableColumn id="5" name="target" dataDxfId="27"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table134" displayName="Table134" ref="B20:D35" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table134" displayName="Table134" ref="B20:D35" totalsRowShown="0" headerRowDxfId="26" dataDxfId="25">
   <autoFilter ref="B20:D35">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" name="id" dataDxfId="14"/>
-    <tableColumn id="5" name="target" dataDxfId="13"/>
-    <tableColumn id="9" name="score" dataDxfId="12"/>
+    <tableColumn id="1" name="id" dataDxfId="24"/>
+    <tableColumn id="5" name="target" dataDxfId="23"/>
+    <tableColumn id="9" name="score" dataDxfId="22"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table1345" displayName="Table1345" ref="B43:D58" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table1345" displayName="Table1345" ref="B43:D58" totalsRowShown="0" headerRowDxfId="21" dataDxfId="20">
   <autoFilter ref="B43:D58">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -834,27 +916,55 @@
     <sortCondition descending="1" ref="D42"/>
   </sortState>
   <tableColumns count="3">
-    <tableColumn id="1" name="id" dataDxfId="9"/>
-    <tableColumn id="5" name="target" dataDxfId="8"/>
-    <tableColumn id="9" name="score (ordered)" dataDxfId="7"/>
+    <tableColumn id="1" name="id" dataDxfId="19"/>
+    <tableColumn id="5" name="target" dataDxfId="18"/>
+    <tableColumn id="9" name="score (ordered)" dataDxfId="17"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table13456" displayName="Table13456" ref="B2:F17" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table13456" displayName="Table13456" ref="B2:F17" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15">
   <sortState ref="B2:D16">
     <sortCondition descending="1" ref="D42"/>
   </sortState>
   <tableColumns count="5">
-    <tableColumn id="1" name="id" dataDxfId="4"/>
-    <tableColumn id="5" name="target" dataDxfId="3"/>
-    <tableColumn id="9" name="score (ordered)" dataDxfId="2"/>
-    <tableColumn id="10" name="predicted label (cutpoint @ 0.5)" dataDxfId="1">
+    <tableColumn id="1" name="id" dataDxfId="14"/>
+    <tableColumn id="5" name="target" dataDxfId="13"/>
+    <tableColumn id="9" name="score (ordered)" dataDxfId="12"/>
+    <tableColumn id="10" name="predicted label (cutpoint @ 0.5)" dataDxfId="11">
       <calculatedColumnFormula>IF(D3&gt;=0.5,"yes","no")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" name="Accuracy" dataDxfId="0"/>
+    <tableColumn id="13" name="Accuracy" dataDxfId="10"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table134563" displayName="Table134563" ref="B2:D17" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
+  <sortState ref="B3:D17">
+    <sortCondition descending="1" ref="D42"/>
+  </sortState>
+  <tableColumns count="3">
+    <tableColumn id="1" name="id" dataDxfId="7"/>
+    <tableColumn id="5" name="target" dataDxfId="6"/>
+    <tableColumn id="9" name="model 1 (good)" dataDxfId="5"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table1345637" displayName="Table1345637" ref="F2:H17" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
+  <sortState ref="F3:I17">
+    <sortCondition descending="1" ref="H20"/>
+  </sortState>
+  <tableColumns count="3">
+    <tableColumn id="1" name="id" dataDxfId="2"/>
+    <tableColumn id="5" name="target" dataDxfId="1"/>
+    <tableColumn id="9" name="model 2 (bad)" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1587,10 +1697,10 @@
       </c>
     </row>
     <row r="41" spans="2:4" ht="111" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C41" s="7" t="s">
+      <c r="C41" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D41" s="7"/>
+      <c r="D41" s="10"/>
     </row>
     <row r="43" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B43" s="1" t="s">
@@ -1787,8 +1897,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:F21"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView showGridLines="0" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2098,4 +2208,350 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:H17"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A5" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:D16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="20.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="6.28515625" customWidth="1"/>
+    <col min="2" max="3" width="14.140625" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" customWidth="1"/>
+    <col min="5" max="8" width="14.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" s="11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B3" s="1">
+        <v>4</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0.98</v>
+      </c>
+      <c r="F3" s="1">
+        <v>14</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="2">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B4" s="1">
+        <v>11</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="2">
+        <v>0.89</v>
+      </c>
+      <c r="F4" s="1">
+        <v>8</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H4" s="2">
+        <v>0.87</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B5" s="1">
+        <v>8</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0.87</v>
+      </c>
+      <c r="F5" s="1">
+        <v>15</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="H5" s="2">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B6" s="1">
+        <v>15</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0.85</v>
+      </c>
+      <c r="F6" s="1">
+        <v>2</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H6" s="2">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B7" s="1">
+        <v>1</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="F7" s="1">
+        <v>10</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H7" s="2">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B8" s="1">
+        <v>10</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="F8" s="1">
+        <v>11</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="H8" s="2">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B9" s="1">
+        <v>5</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="F9" s="1">
+        <v>9</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H9" s="2">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B10" s="1">
+        <v>13</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D10" s="2">
+        <v>0.34</v>
+      </c>
+      <c r="F10" s="1">
+        <v>5</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="H10" s="2">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B11" s="1">
+        <v>6</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D11" s="2">
+        <v>0.23</v>
+      </c>
+      <c r="F11" s="1">
+        <v>7</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H11" s="2">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B12" s="1">
+        <v>14</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D12" s="2">
+        <v>0.23</v>
+      </c>
+      <c r="F12" s="1">
+        <v>13</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H12" s="2">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B13" s="1">
+        <v>7</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D13" s="2">
+        <v>0.21</v>
+      </c>
+      <c r="F13" s="1">
+        <v>4</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="H13" s="2">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B14" s="1">
+        <v>2</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D14" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="F14" s="1">
+        <v>1</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="H14" s="2">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B15" s="1">
+        <v>3</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D15" s="2">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="F15" s="1">
+        <v>3</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H15" s="2">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B16" s="1">
+        <v>9</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D16" s="2">
+        <v>0.11</v>
+      </c>
+      <c r="F16" s="1">
+        <v>6</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H16" s="2">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B17" s="1">
+        <v>12</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D17" s="2">
+        <v>0.11</v>
+      </c>
+      <c r="F17" s="1">
+        <v>12</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H17" s="2">
+        <v>0.11</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <tableParts count="2">
+    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
+  </tableParts>
+</worksheet>
 </file>